--- a/迈克尔逊干涉仪.xlsx
+++ b/迈克尔逊干涉仪.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A11EAF-4D0A-40A9-857F-DB8F804CF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0AFF3-F172-4BF2-BA7B-C5FB0DBA7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,18 +97,6 @@
   </si>
   <si>
     <t>迈克尔孙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -400,7 +388,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$14</c:f>
+              <c:f>Sheet1!$A$9:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -430,7 +418,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$14</c:f>
+              <c:f>Sheet1!$B$9:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1508,7 +1496,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1523,254 +1511,237 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="9">
-        <f t="shared" ref="B8:B14" si="0">C8*1000000</f>
+      <c r="B9" s="9">
+        <f t="shared" ref="B9:B15" si="0">C9*1000000</f>
         <v>10310</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>1.031E-2</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>50</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>27010</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>2.7009999999999999E-2</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" ref="D9:D14" si="1">C9-C8</f>
+      <c r="D10" s="9">
+        <f t="shared" ref="D10:D15" si="1">C10-C9</f>
         <v>1.67E-2</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" ref="E9:E14" si="2">D9*2000000/(A9-A8)</f>
+      <c r="E10" s="9">
+        <f t="shared" ref="E10:E15" si="2">D10*2000000/(A10-A9)</f>
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>100</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>42630</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>4.2630000000000001E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
         <v>1.5620000000000002E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <f t="shared" si="2"/>
         <v>624.80000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>150</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>59030</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>5.9029999999999999E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <f t="shared" si="1"/>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <f t="shared" si="2"/>
         <v>655.99999999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>200</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>75140</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>7.5139999999999998E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <f t="shared" si="1"/>
         <v>1.6109999999999999E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <f t="shared" si="2"/>
         <v>644.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>250</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>90720</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>9.0719999999999995E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <f t="shared" si="1"/>
         <v>1.5579999999999997E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <f t="shared" si="2"/>
         <v>623.19999999999982</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>106740</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>0.10674</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <f t="shared" si="1"/>
         <v>1.6020000000000006E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <f t="shared" si="2"/>
         <v>640.8000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="10">
-        <f>IF(B17&lt;6,ROUND(TINV(1-A17,B17-1),2),1)</f>
+      <c r="C18" s="10">
+        <f>IF(B18&lt;6,ROUND(TINV(1-A18,B18-1),2),1)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="10">
-        <f>AVERAGE(E9:E14)</f>
+      <c r="D18" s="10">
+        <f>AVERAGE(E10:E15)</f>
         <v>642.86666666666667</v>
       </c>
-      <c r="E17" s="10">
-        <f>_xlfn.STDEV.S(E9:E14)</f>
+      <c r="E18" s="10">
+        <f>_xlfn.STDEV.S(E10:E15)</f>
         <v>17.458369530590961</v>
       </c>
-      <c r="F17" s="10">
-        <f>C17/SQRT(B17)*E17</f>
+      <c r="F18" s="10">
+        <f>C18/SQRT(B18)*E18</f>
         <v>7.1273495151501551</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>5.7735000000000003</v>
       </c>
-      <c r="H17" s="10">
-        <f>SQRT(F17^2+G17^2)</f>
+      <c r="H18" s="10">
+        <f>SQRT(F18^2+G18^2)</f>
         <v>9.1723722864431956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/迈克尔逊干涉仪.xlsx
+++ b/迈克尔逊干涉仪.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0AFF3-F172-4BF2-BA7B-C5FB0DBA7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A19C2A-390B-470D-9774-119418852656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,18 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>△d/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>λ/nm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>μaλ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,14 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>μλ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>λ平均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标准偏差Sλ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -105,6 +85,34 @@
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d/mm 5dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>△d/mm 5dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(与μD对齐位数)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(最高次有效数字为1,2保留两位,反之保留一位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ平均/nm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μλ/nm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ/nm 4sd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -112,6 +120,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,18 +231,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyProtection="1">
@@ -247,6 +253,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,15 +1215,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1496,15 +1517,15 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1513,25 +1534,25 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1540,48 +1561,48 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <f t="shared" ref="B9:B15" si="0">C9*1000000</f>
         <v>10310</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <v>1.031E-2</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>50</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>27010</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="9">
         <v>2.7009999999999999E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <f t="shared" ref="D10:D15" si="1">C10-C9</f>
         <v>1.67E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="15">
         <f t="shared" ref="E10:E15" si="2">D10*2000000/(A10-A9)</f>
         <v>668</v>
       </c>
@@ -1590,18 +1611,18 @@
       <c r="A11" s="2">
         <v>100</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>42630</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <v>4.2630000000000001E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>1.5620000000000002E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="15">
         <f t="shared" si="2"/>
         <v>624.80000000000007</v>
       </c>
@@ -1610,18 +1631,18 @@
       <c r="A12" s="2">
         <v>150</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>59030</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="9">
         <v>5.9029999999999999E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="15">
         <f t="shared" si="2"/>
         <v>655.99999999999989</v>
       </c>
@@ -1630,18 +1651,18 @@
       <c r="A13" s="2">
         <v>200</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>75140</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="9">
         <v>7.5139999999999998E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>1.6109999999999999E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="15">
         <f t="shared" si="2"/>
         <v>644.4</v>
       </c>
@@ -1650,18 +1671,18 @@
       <c r="A14" s="2">
         <v>250</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>90720</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>9.0719999999999995E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>1.5579999999999997E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="15">
         <f t="shared" si="2"/>
         <v>623.19999999999982</v>
       </c>
@@ -1670,82 +1691,100 @@
       <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>106740</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <v>0.10674</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>1.6020000000000006E-2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="15">
         <f t="shared" si="2"/>
         <v>640.8000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>9</v>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B18" s="6">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8">
         <f>IF(B18&lt;6,ROUND(TINV(1-A18,B18-1),2),1)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <f>AVERAGE(E10:E15)</f>
         <v>642.86666666666667</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <f>_xlfn.STDEV.S(E10:E15)</f>
         <v>17.458369530590961</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <f>C18/SQRT(B18)*E18</f>
-        <v>7.1273495151501551</v>
-      </c>
-      <c r="G18" s="7">
+        <v>6.5986434392301616</v>
+      </c>
+      <c r="G18" s="5">
         <v>5.7735000000000003</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <f>SQRT(F18^2+G18^2)</f>
-        <v>9.1723722864431956</v>
+        <v>8.767861625738357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="13" t="str">
+        <f>IF(H18*10^INT(-LOG(ABS(H18)))&lt;0.3,FIXED(D18,1-INT(LOG(H18)),1),FIXED(D18,-INT(LOG(H18)),1))</f>
+        <v>643</v>
+      </c>
+      <c r="H20" s="13" t="str">
+        <f>IF(H18*10^INT(-LOG(ABS(H18)))&lt;0.3,FIXED(H18,1-INT(LOG(H18)),1),FIXED(H18,-INT(LOG(H18)),1))</f>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
